--- a/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-technique-imagerie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -414,31 +414,31 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
-    <t>fr-lm-technique-imagerie.lateralite.topographique</t>
+    <t>fr-lm-technique-imagerie.lateralite.precisionTopographique</t>
   </si>
   <si>
     <t>Précision topographique</t>
   </si>
   <si>
-    <t>fr-lm-technique-imagerie.lateralite.topographique.id</t>
-  </si>
-  <si>
-    <t>fr-lm-technique-imagerie.lateralite.topographique.extension</t>
-  </si>
-  <si>
-    <t>fr-lm-technique-imagerie.lateralite.topographique.coding</t>
-  </si>
-  <si>
-    <t>fr-lm-technique-imagerie.lateralite.topographique.text</t>
-  </si>
-  <si>
-    <t>fr-lm-technique-imagerie.lateralite.topographique.nom</t>
+    <t>fr-lm-technique-imagerie.lateralite.precisionTopographique.id</t>
+  </si>
+  <si>
+    <t>fr-lm-technique-imagerie.lateralite.precisionTopographique.extension</t>
+  </si>
+  <si>
+    <t>fr-lm-technique-imagerie.lateralite.precisionTopographique.coding</t>
+  </si>
+  <si>
+    <t>fr-lm-technique-imagerie.lateralite.precisionTopographique.text</t>
+  </si>
+  <si>
+    <t>fr-lm-technique-imagerie.lateralite.precisionTopographique.nom</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>fr-lm-technique-imagerie.lateralite.topographique.valeur</t>
+    <t>fr-lm-technique-imagerie.lateralite.precisionTopographique.valeur</t>
   </si>
   <si>
     <t>Valeur de la topographie</t>
@@ -768,8 +768,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.3203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.3203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.7890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.7890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -799,7 +799,7 @@
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="53.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
